--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432427.8031562909</v>
+        <v>431761.1857198699</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392548.0828146748</v>
+        <v>392548.0828146754</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.54481721446616</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.300964703200975</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>74.46707500250176</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84.54481721446616</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>23.12798498931299</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.03812530998763</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
     </row>
     <row r="12">
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="T12" t="n">
-        <v>78.83557226606253</v>
+        <v>78.8355722660627</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411956</v>
+        <v>33.1161990041195</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923773</v>
+        <v>36.53747918923767</v>
       </c>
       <c r="W12" t="n">
-        <v>62.59314185084708</v>
+        <v>62.59314185084702</v>
       </c>
       <c r="X12" t="n">
-        <v>13.20147271330609</v>
+        <v>13.20147271330603</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.2728444078611</v>
+        <v>19.27284440786104</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479824</v>
+        <v>31.23138271479818</v>
       </c>
       <c r="T13" t="n">
-        <v>19.6267712025871</v>
+        <v>19.62677120258704</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446608</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828539</v>
+        <v>40.99757345828533</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207801</v>
+        <v>17.80801368207796</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.0298310880039</v>
+        <v>13.02983108800385</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>56.16595637032204</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>23.12798498931302</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863218008</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>46.03812530998766</v>
       </c>
       <c r="V14" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>5.300964703201032</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868805</v>
+        <v>78.83557226606258</v>
       </c>
       <c r="U15" t="n">
-        <v>79.16688312787578</v>
+        <v>33.11619900411953</v>
       </c>
       <c r="V15" t="n">
-        <v>36.53747918923773</v>
+        <v>36.5374791892377</v>
       </c>
       <c r="W15" t="n">
-        <v>84.54481721446658</v>
+        <v>62.59314185084705</v>
       </c>
       <c r="X15" t="n">
-        <v>13.20147271330609</v>
+        <v>13.20147271330606</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.2728444078611</v>
+        <v>19.27284440786107</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.23138271479824</v>
+        <v>31.23138271479821</v>
       </c>
       <c r="T16" t="n">
-        <v>19.6267712025871</v>
+        <v>19.62677120258707</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446614</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="V16" t="n">
-        <v>40.99757345828539</v>
+        <v>40.99757345828536</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="X16" t="n">
-        <v>17.80801368207801</v>
+        <v>17.80801368207798</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.0298310880039</v>
+        <v>13.02983108800387</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.65434805750107</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084656</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D17" t="n">
-        <v>2.339267321895022</v>
+        <v>2.339267321894852</v>
       </c>
       <c r="E17" t="n">
-        <v>36.04601974130389</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F17" t="n">
-        <v>67.76635731968122</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G17" t="n">
-        <v>83.39309993609703</v>
+        <v>83.39309993609689</v>
       </c>
       <c r="H17" t="n">
-        <v>11.46376063065065</v>
+        <v>11.4637606306505</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.463571505434793</v>
+        <v>2.463571505434459</v>
       </c>
       <c r="X17" t="n">
-        <v>24.34982197437387</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.85267509811763</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1965,28 +1965,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>68.42954067889576</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="V18" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="W18" t="n">
-        <v>74.46707500250216</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.65434805750107</v>
+        <v>38.6543480575009</v>
       </c>
       <c r="C20" t="n">
-        <v>14.77260506084656</v>
+        <v>14.77260506084639</v>
       </c>
       <c r="D20" t="n">
-        <v>2.339267321895022</v>
+        <v>2.339267321894852</v>
       </c>
       <c r="E20" t="n">
-        <v>36.04601974130389</v>
+        <v>36.04601974130372</v>
       </c>
       <c r="F20" t="n">
-        <v>67.76635731968122</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G20" t="n">
-        <v>83.39309993609706</v>
+        <v>83.39309993609689</v>
       </c>
       <c r="H20" t="n">
-        <v>11.46376063065065</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.463571505434629</v>
+        <v>2.463571505434459</v>
       </c>
       <c r="X20" t="n">
-        <v>24.34982197437387</v>
+        <v>24.3498219743737</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.85267509811763</v>
+        <v>46.85267509811746</v>
       </c>
     </row>
     <row r="21">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>74.46707500250173</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>74.46707500250216</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="V21" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.65434805750112</v>
+        <v>38.65434805750095</v>
       </c>
       <c r="C23" t="n">
-        <v>14.77260506084662</v>
+        <v>14.77260506084644</v>
       </c>
       <c r="D23" t="n">
-        <v>2.339267321895079</v>
+        <v>2.339267321894908</v>
       </c>
       <c r="E23" t="n">
-        <v>36.04601974130395</v>
+        <v>36.04601974130378</v>
       </c>
       <c r="F23" t="n">
-        <v>67.76635731968128</v>
+        <v>67.76635731968111</v>
       </c>
       <c r="G23" t="n">
-        <v>83.39309993609712</v>
+        <v>83.39309993609692</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46376063065071</v>
+        <v>11.46376063065054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.463571505434686</v>
+        <v>2.463571505434516</v>
       </c>
       <c r="X23" t="n">
-        <v>24.34982197437392</v>
+        <v>24.34982197437375</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.85267509811769</v>
+        <v>46.85267509811752</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>74.46707500250216</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>74.46707500250184</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2467968077939</v>
+        <v>161.246796807794</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3650538111394</v>
+        <v>137.3650538111395</v>
       </c>
       <c r="D26" t="n">
         <v>124.9317160721879</v>
@@ -2570,10 +2570,10 @@
         <v>205.9855486863899</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0562093809435</v>
+        <v>134.0562093809436</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69972896891994</v>
+        <v>27.69972896891997</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543819</v>
+        <v>14.39898314543822</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305209</v>
+        <v>9.572116788305237</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611282</v>
+        <v>37.30912346611285</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0393400391126</v>
+        <v>108.0393400391127</v>
       </c>
       <c r="W26" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9422707246667</v>
+        <v>146.9422707246668</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4451238484105</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104.9455405408539</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813179</v>
+        <v>2.104210934813207</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276407302841</v>
+        <v>24.38719716024472</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80847734536286</v>
+        <v>27.80847734536289</v>
       </c>
       <c r="W27" t="n">
-        <v>155.3472096592201</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.47247086943122</v>
+        <v>4.472470869431248</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398623</v>
+        <v>10.54384256398626</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092337</v>
+        <v>22.5023808709234</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871223</v>
+        <v>10.89776935871225</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059127</v>
+        <v>75.8158153705913</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441052</v>
+        <v>32.26857161441055</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47026351929594</v>
+        <v>77.47026351929597</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203144</v>
+        <v>9.079011838203172</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129034</v>
+        <v>4.300829244129062</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>124.9317160721879</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6384684915968</v>
+        <v>158.6384684915967</v>
       </c>
       <c r="F29" t="n">
         <v>190.3588060699741</v>
@@ -2807,10 +2807,10 @@
         <v>205.9855486863899</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69972896891994</v>
+        <v>27.69972896891991</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543818</v>
+        <v>14.39898314543815</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305207</v>
+        <v>9.572116788305179</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611282</v>
+        <v>37.30912346611279</v>
       </c>
       <c r="V29" t="n">
         <v>108.0393400391126</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>50.38484602431781</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813179</v>
+        <v>2.10421093481315</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276407302841</v>
+        <v>24.38719716024466</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536286</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86414000697221</v>
+        <v>53.86414000697218</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>79.36559656151758</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54384256398623</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092337</v>
+        <v>22.50238087092334</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89776935871223</v>
+        <v>10.8977693587122</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81581537059127</v>
+        <v>75.81581537059124</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441052</v>
+        <v>32.26857161441049</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929594</v>
+        <v>77.47026351929591</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203144</v>
+        <v>9.079011838203115</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244129034</v>
+        <v>4.300829244129005</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>205.9855486863899</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0562093809435</v>
+        <v>134.0562093809436</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891994</v>
+        <v>27.69972896891995</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543819</v>
+        <v>14.39898314543818</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305209</v>
+        <v>9.572116788305207</v>
       </c>
       <c r="U32" t="n">
         <v>37.30912346611282</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45779074658041</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>2.104210934813179</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38719716024469</v>
+        <v>233.5954823044909</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>181.464091106101</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>33.64763585110428</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
         <v>0.9925489516172765</v>
@@ -3405,7 +3405,7 @@
         <v>4.413829136735444</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834479</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>113.970405602512</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5370678635604</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E38" t="n">
         <v>135.2438202829693</v>
@@ -3521,7 +3521,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292469</v>
+        <v>4.305080760292498</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748535</v>
+        <v>13.91447525748538</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048516</v>
+        <v>84.64469183048519</v>
       </c>
       <c r="W38" t="n">
-        <v>101.6613720471</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X38" t="n">
         <v>123.5476225160393</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.050475639783</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="39">
@@ -3582,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>28.74126889264575</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>90.55114264452575</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9925489516172197</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735416</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196379</v>
+        <v>52.42116716196382</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783046</v>
+        <v>8.873923405783074</v>
       </c>
       <c r="W40" t="n">
-        <v>54.07561531066847</v>
+        <v>54.0756153106685</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3822,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>109.3707639453384</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>198.4322871016089</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991666</v>
       </c>
       <c r="C44" t="n">
         <v>113.970405602512</v>
@@ -3983,19 +3983,19 @@
         <v>101.5370678635605</v>
       </c>
       <c r="E44" t="n">
-        <v>135.2438202829693</v>
+        <v>135.2438202829694</v>
       </c>
       <c r="F44" t="n">
-        <v>166.9641578613466</v>
+        <v>166.9641578613467</v>
       </c>
       <c r="G44" t="n">
         <v>182.5909004777625</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6615611723161</v>
+        <v>110.6615611723162</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292498</v>
+        <v>4.305080760292554</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748538</v>
+        <v>13.91447525748544</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048519</v>
+        <v>84.64469183048524</v>
       </c>
       <c r="W44" t="n">
         <v>101.6613720471001</v>
       </c>
       <c r="X44" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160394</v>
       </c>
       <c r="Y44" t="n">
         <v>146.0504756397831</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>135.5120470892881</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516172481</v>
+        <v>125.5441391594331</v>
       </c>
       <c r="V45" t="n">
-        <v>4.413829136735416</v>
+        <v>4.413829136735473</v>
       </c>
       <c r="W45" t="n">
-        <v>30.46949179834476</v>
+        <v>30.46949179834482</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196382</v>
+        <v>52.42116716196388</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783074</v>
+        <v>8.873923405783131</v>
       </c>
       <c r="W46" t="n">
-        <v>54.0756153106685</v>
+        <v>54.07561531066855</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.3816583235896</v>
+        <v>12.1180951783704</v>
       </c>
       <c r="C11" t="n">
-        <v>167.3816583235896</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="D11" t="n">
-        <v>167.3816583235896</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="E11" t="n">
-        <v>167.3816583235896</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F11" t="n">
-        <v>92.16239064429485</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G11" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H11" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J11" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K11" t="n">
-        <v>90.46295441947881</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="L11" t="n">
-        <v>139.0867816289625</v>
+        <v>57.768547354446</v>
       </c>
       <c r="M11" t="n">
-        <v>222.786150671284</v>
+        <v>140.7478836180008</v>
       </c>
       <c r="N11" t="n">
-        <v>301.9268453198522</v>
+        <v>218.2274762775306</v>
       </c>
       <c r="O11" t="n">
-        <v>338.1792688578647</v>
+        <v>254.479899815543</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1792688578647</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q11" t="n">
-        <v>338.1792688578647</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578647</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S11" t="n">
-        <v>338.1792688578647</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="T11" t="n">
-        <v>338.1792688578647</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="U11" t="n">
-        <v>338.1792688578647</v>
+        <v>268.3145109797831</v>
       </c>
       <c r="V11" t="n">
-        <v>338.1792688578647</v>
+        <v>182.9157057126455</v>
       </c>
       <c r="W11" t="n">
-        <v>338.1792688578647</v>
+        <v>182.9157057126455</v>
       </c>
       <c r="X11" t="n">
-        <v>338.1792688578647</v>
+        <v>97.5169004455079</v>
       </c>
       <c r="Y11" t="n">
-        <v>252.7804635907271</v>
+        <v>12.1180951783704</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825745</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="L12" t="n">
-        <v>129.468149840579</v>
+        <v>87.08116173090012</v>
       </c>
       <c r="M12" t="n">
-        <v>213.1675188829005</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="N12" t="n">
-        <v>296.866887925222</v>
+        <v>254.479899815543</v>
       </c>
       <c r="O12" t="n">
-        <v>338.1792688578647</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578647</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.1792688578647</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R12" t="n">
-        <v>338.1792688578647</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S12" t="n">
-        <v>252.7804635907271</v>
+        <v>252.780463590727</v>
       </c>
       <c r="T12" t="n">
-        <v>173.1485724128862</v>
+        <v>173.1485724128859</v>
       </c>
       <c r="U12" t="n">
-        <v>139.6978663481189</v>
+        <v>139.6978663481187</v>
       </c>
       <c r="V12" t="n">
-        <v>102.7913217125252</v>
+        <v>102.7913217125251</v>
       </c>
       <c r="W12" t="n">
-        <v>39.56592590358881</v>
+        <v>39.56592590358868</v>
       </c>
       <c r="X12" t="n">
-        <v>26.2311049810574</v>
+        <v>26.23110498105734</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="C13" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="D13" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="E13" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F13" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G13" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H13" t="n">
-        <v>6.763585377157293</v>
+        <v>44.71585177580383</v>
       </c>
       <c r="I13" t="n">
-        <v>6.763585377157293</v>
+        <v>50.3959899417935</v>
       </c>
       <c r="J13" t="n">
-        <v>6.763585377157293</v>
+        <v>50.3959899417935</v>
       </c>
       <c r="K13" t="n">
-        <v>50.39598994179374</v>
+        <v>50.3959899417935</v>
       </c>
       <c r="L13" t="n">
-        <v>134.0953589841153</v>
+        <v>134.095358984115</v>
       </c>
       <c r="M13" t="n">
-        <v>134.0953589841153</v>
+        <v>217.7947280264364</v>
       </c>
       <c r="N13" t="n">
-        <v>134.0953589841153</v>
+        <v>217.7947280264364</v>
       </c>
       <c r="O13" t="n">
-        <v>217.7947280264368</v>
+        <v>217.7947280264364</v>
       </c>
       <c r="P13" t="n">
-        <v>301.4940970687583</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="Q13" t="n">
-        <v>301.4940970687583</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687583</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416893</v>
+        <v>269.947245841689</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249347</v>
+        <v>250.1222244249344</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577972</v>
+        <v>164.723419157797</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958927</v>
+        <v>123.3117287958926</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875519</v>
+        <v>37.91292352875507</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059558</v>
+        <v>19.92503092059552</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157293</v>
+        <v>6.76358537715729</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.49687464010889</v>
+        <v>92.16239064429479</v>
       </c>
       <c r="C14" t="n">
-        <v>63.49687464010889</v>
+        <v>92.16239064429479</v>
       </c>
       <c r="D14" t="n">
-        <v>63.49687464010889</v>
+        <v>92.16239064429479</v>
       </c>
       <c r="E14" t="n">
-        <v>63.49687464010889</v>
+        <v>92.16239064429479</v>
       </c>
       <c r="F14" t="n">
-        <v>6.763585377157327</v>
+        <v>92.16239064429479</v>
       </c>
       <c r="G14" t="n">
-        <v>6.763585377157327</v>
+        <v>92.16239064429479</v>
       </c>
       <c r="H14" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I14" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J14" t="n">
-        <v>6.763585377157327</v>
+        <v>86.62431280449212</v>
       </c>
       <c r="K14" t="n">
-        <v>6.763585377157327</v>
+        <v>86.62431280449212</v>
       </c>
       <c r="L14" t="n">
-        <v>55.38741258664106</v>
+        <v>135.2481400139758</v>
       </c>
       <c r="M14" t="n">
-        <v>138.3667488501958</v>
+        <v>218.2274762775306</v>
       </c>
       <c r="N14" t="n">
-        <v>222.0661178925178</v>
+        <v>301.9268453198521</v>
       </c>
       <c r="O14" t="n">
-        <v>258.3185414305302</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q14" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R14" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S14" t="n">
-        <v>338.1792688578663</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="T14" t="n">
-        <v>319.6932904415228</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="U14" t="n">
-        <v>319.6932904415228</v>
+        <v>268.314510979783</v>
       </c>
       <c r="V14" t="n">
-        <v>234.2944851743848</v>
+        <v>182.9157057126455</v>
       </c>
       <c r="W14" t="n">
-        <v>234.2944851743848</v>
+        <v>182.9157057126455</v>
       </c>
       <c r="X14" t="n">
-        <v>234.2944851743848</v>
+        <v>177.5611959114323</v>
       </c>
       <c r="Y14" t="n">
-        <v>148.8956799072469</v>
+        <v>177.5611959114323</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="C15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="D15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="E15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J15" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K15" t="n">
-        <v>45.76878079825749</v>
+        <v>45.76878079825746</v>
       </c>
       <c r="L15" t="n">
-        <v>87.08116173090059</v>
+        <v>87.08116173090012</v>
       </c>
       <c r="M15" t="n">
-        <v>170.7805307732225</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="N15" t="n">
-        <v>170.7805307732225</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="O15" t="n">
-        <v>254.4798998155444</v>
+        <v>254.479899815543</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R15" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="S15" t="n">
-        <v>338.1792688578663</v>
+        <v>252.780463590727</v>
       </c>
       <c r="T15" t="n">
-        <v>327.2366296874744</v>
+        <v>173.148572412886</v>
       </c>
       <c r="U15" t="n">
-        <v>247.2700810734584</v>
+        <v>139.6978663481188</v>
       </c>
       <c r="V15" t="n">
-        <v>210.3635364378648</v>
+        <v>102.7913217125251</v>
       </c>
       <c r="W15" t="n">
-        <v>124.9647311707268</v>
+        <v>39.56592590358873</v>
       </c>
       <c r="X15" t="n">
-        <v>111.6299102481954</v>
+        <v>26.23110498105736</v>
       </c>
       <c r="Y15" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="C16" t="n">
-        <v>6.763585377157327</v>
+        <v>44.04130352380756</v>
       </c>
       <c r="D16" t="n">
-        <v>65.1030889378566</v>
+        <v>44.04130352380756</v>
       </c>
       <c r="E16" t="n">
-        <v>65.1030889378566</v>
+        <v>105.8522510326077</v>
       </c>
       <c r="F16" t="n">
-        <v>129.6358028504973</v>
+        <v>105.8522510326077</v>
       </c>
       <c r="G16" t="n">
-        <v>129.6358028504973</v>
+        <v>105.8522510326077</v>
       </c>
       <c r="H16" t="n">
-        <v>129.6358028504973</v>
+        <v>134.0953589841151</v>
       </c>
       <c r="I16" t="n">
-        <v>129.6358028504973</v>
+        <v>134.0953589841151</v>
       </c>
       <c r="J16" t="n">
-        <v>129.6358028504973</v>
+        <v>134.0953589841151</v>
       </c>
       <c r="K16" t="n">
-        <v>134.0953589841149</v>
+        <v>134.0953589841151</v>
       </c>
       <c r="L16" t="n">
-        <v>217.7947280264368</v>
+        <v>134.0953589841151</v>
       </c>
       <c r="M16" t="n">
-        <v>217.7947280264368</v>
+        <v>217.7947280264366</v>
       </c>
       <c r="N16" t="n">
-        <v>217.7947280264368</v>
+        <v>217.7947280264366</v>
       </c>
       <c r="O16" t="n">
-        <v>217.7947280264368</v>
+        <v>301.494097068758</v>
       </c>
       <c r="P16" t="n">
-        <v>301.4940970687587</v>
+        <v>301.494097068758</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687587</v>
+        <v>301.494097068758</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687587</v>
+        <v>301.494097068758</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416897</v>
+        <v>269.9472458416892</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249351</v>
+        <v>250.1222244249345</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577976</v>
+        <v>164.723419157797</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958932</v>
+        <v>123.3117287958926</v>
       </c>
       <c r="W16" t="n">
-        <v>37.91292352875522</v>
+        <v>37.91292352875513</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059561</v>
+        <v>19.92503092059555</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.724302559455</v>
+        <v>224.7243025594538</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656706</v>
+        <v>209.8024792656695</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809281</v>
+        <v>207.4395829809274</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301161</v>
+        <v>171.0294620301155</v>
       </c>
       <c r="F17" t="n">
-        <v>102.57859605064</v>
+        <v>102.5785960506397</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973375</v>
+        <v>18.34314156973355</v>
       </c>
       <c r="H17" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I17" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664106</v>
+        <v>55.38741258664102</v>
       </c>
       <c r="M17" t="n">
         <v>138.3667488501958</v>
@@ -5528,37 +5528,37 @@
         <v>215.8463415097256</v>
       </c>
       <c r="O17" t="n">
-        <v>299.5457105520476</v>
+        <v>252.0987650477381</v>
       </c>
       <c r="P17" t="n">
-        <v>299.5457105520476</v>
+        <v>335.7981340900595</v>
       </c>
       <c r="Q17" t="n">
-        <v>338.1792688578663</v>
+        <v>335.7981340900595</v>
       </c>
       <c r="R17" t="n">
-        <v>338.1792688578663</v>
+        <v>335.7981340900595</v>
       </c>
       <c r="S17" t="n">
-        <v>338.1792688578663</v>
+        <v>335.7981340900595</v>
       </c>
       <c r="T17" t="n">
-        <v>338.1792688578663</v>
+        <v>335.7981340900595</v>
       </c>
       <c r="U17" t="n">
-        <v>338.1792688578663</v>
+        <v>335.7981340900595</v>
       </c>
       <c r="V17" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917708</v>
+        <v>335.6908127917691</v>
       </c>
       <c r="X17" t="n">
-        <v>311.095033019676</v>
+        <v>311.0950330196745</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771329</v>
+        <v>263.7690985771315</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="C18" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="D18" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="E18" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F18" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G18" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H18" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I18" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J18" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K18" t="n">
-        <v>45.76878079825749</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="L18" t="n">
-        <v>129.4681498405794</v>
+        <v>87.08116173090012</v>
       </c>
       <c r="M18" t="n">
-        <v>170.7805307732225</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="N18" t="n">
-        <v>170.7805307732225</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="O18" t="n">
-        <v>254.4798998155444</v>
+        <v>254.479899815543</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.1792688578663</v>
+        <v>332.0807493390706</v>
       </c>
       <c r="R18" t="n">
-        <v>338.1792688578663</v>
+        <v>246.6819440719331</v>
       </c>
       <c r="S18" t="n">
-        <v>338.1792688578663</v>
+        <v>246.6819440719331</v>
       </c>
       <c r="T18" t="n">
-        <v>338.1792688578663</v>
+        <v>177.5611959114323</v>
       </c>
       <c r="U18" t="n">
-        <v>338.1792688578663</v>
+        <v>92.16239064429479</v>
       </c>
       <c r="V18" t="n">
-        <v>252.7804635907283</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="W18" t="n">
-        <v>177.5611959114332</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="X18" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="Y18" t="n">
-        <v>92.16239064429529</v>
+        <v>6.76358537715729</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="C19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="E19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="L19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="M19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="N19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="O19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="P19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="R19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="S19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="T19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="U19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="V19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="W19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="X19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594549</v>
+        <v>224.7243025594538</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656705</v>
+        <v>209.8024792656696</v>
       </c>
       <c r="D20" t="n">
-        <v>207.439582980928</v>
+        <v>207.4395829809272</v>
       </c>
       <c r="E20" t="n">
-        <v>171.029462030116</v>
+        <v>171.0294620301154</v>
       </c>
       <c r="F20" t="n">
-        <v>102.57859605064</v>
+        <v>102.5785960506395</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973375</v>
+        <v>18.34314156973354</v>
       </c>
       <c r="H20" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I20" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J20" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K20" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="L20" t="n">
-        <v>55.38741258664106</v>
+        <v>55.38741258664102</v>
       </c>
       <c r="M20" t="n">
-        <v>139.086781628963</v>
+        <v>139.0867816289625</v>
       </c>
       <c r="N20" t="n">
-        <v>216.5663742884928</v>
+        <v>216.5663742884923</v>
       </c>
       <c r="O20" t="n">
-        <v>252.8187978265052</v>
+        <v>252.8187978265047</v>
       </c>
       <c r="P20" t="n">
-        <v>252.8187978265052</v>
+        <v>252.8187978265047</v>
       </c>
       <c r="Q20" t="n">
-        <v>336.5181668688271</v>
+        <v>252.8187978265047</v>
       </c>
       <c r="R20" t="n">
-        <v>336.5181668688271</v>
+        <v>252.8187978265047</v>
       </c>
       <c r="S20" t="n">
-        <v>336.5181668688271</v>
+        <v>336.5181668688262</v>
       </c>
       <c r="T20" t="n">
-        <v>336.5181668688271</v>
+        <v>336.5181668688262</v>
       </c>
       <c r="U20" t="n">
-        <v>336.5181668688271</v>
+        <v>336.5181668688262</v>
       </c>
       <c r="V20" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917707</v>
+        <v>335.6908127917691</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196759</v>
+        <v>311.0950330196744</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771328</v>
+        <v>263.7690985771315</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.763585377157327</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="C21" t="n">
-        <v>6.763585377157327</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="D21" t="n">
-        <v>6.763585377157327</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="E21" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F21" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G21" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H21" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I21" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J21" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K21" t="n">
-        <v>45.76878079825749</v>
+        <v>45.76878079825746</v>
       </c>
       <c r="L21" t="n">
-        <v>129.4681498405794</v>
+        <v>45.76878079825746</v>
       </c>
       <c r="M21" t="n">
-        <v>129.4681498405794</v>
+        <v>87.08116173090012</v>
       </c>
       <c r="N21" t="n">
-        <v>170.7805307732225</v>
+        <v>170.7805307732216</v>
       </c>
       <c r="O21" t="n">
-        <v>254.4798998155444</v>
+        <v>254.479899815543</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578645</v>
       </c>
       <c r="R21" t="n">
-        <v>262.9600011785712</v>
+        <v>252.780463590727</v>
       </c>
       <c r="S21" t="n">
-        <v>262.9600011785712</v>
+        <v>252.780463590727</v>
       </c>
       <c r="T21" t="n">
-        <v>177.5611959114332</v>
+        <v>252.780463590727</v>
       </c>
       <c r="U21" t="n">
-        <v>177.5611959114332</v>
+        <v>167.3816583235895</v>
       </c>
       <c r="V21" t="n">
-        <v>92.16239064429529</v>
+        <v>167.3816583235895</v>
       </c>
       <c r="W21" t="n">
-        <v>92.16239064429529</v>
+        <v>167.3816583235895</v>
       </c>
       <c r="X21" t="n">
-        <v>6.763585377157327</v>
+        <v>167.3816583235895</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.763585377157327</v>
+        <v>81.98285305645197</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="C22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="D22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="E22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="F22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="G22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="I22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="J22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="K22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="L22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="M22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="N22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="O22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="P22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="R22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="S22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="T22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="U22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="V22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="W22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="X22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.763585377157327</v>
+        <v>6.76358537715729</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594549</v>
+        <v>224.7243025594541</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656707</v>
+        <v>209.8024792656698</v>
       </c>
       <c r="D23" t="n">
-        <v>207.4395829809282</v>
+        <v>207.4395829809276</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0294620301161</v>
+        <v>171.0294620301159</v>
       </c>
       <c r="F23" t="n">
         <v>102.57859605064</v>
       </c>
       <c r="G23" t="n">
-        <v>18.3431415697338</v>
+        <v>18.34314156973361</v>
       </c>
       <c r="H23" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="I23" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="J23" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="K23" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="L23" t="n">
-        <v>55.38741258664106</v>
+        <v>55.38741258664103</v>
       </c>
       <c r="M23" t="n">
         <v>138.3667488501958</v>
@@ -6002,37 +6002,37 @@
         <v>215.8463415097256</v>
       </c>
       <c r="O23" t="n">
-        <v>254.4798998155444</v>
+        <v>254.4798998155435</v>
       </c>
       <c r="P23" t="n">
-        <v>338.1792688578663</v>
+        <v>254.4798998155435</v>
       </c>
       <c r="Q23" t="n">
-        <v>338.1792688578663</v>
+        <v>254.4798998155435</v>
       </c>
       <c r="R23" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578651</v>
       </c>
       <c r="S23" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578651</v>
       </c>
       <c r="T23" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578651</v>
       </c>
       <c r="U23" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578651</v>
       </c>
       <c r="V23" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578651</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917708</v>
+        <v>335.6908127917696</v>
       </c>
       <c r="X23" t="n">
-        <v>311.095033019676</v>
+        <v>311.0950330196749</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.7690985771328</v>
+        <v>263.7690985771318</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>177.5611959114332</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="C24" t="n">
-        <v>177.5611959114332</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="D24" t="n">
-        <v>92.16239064429529</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="E24" t="n">
-        <v>92.16239064429529</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="F24" t="n">
-        <v>92.16239064429529</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="G24" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="H24" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="I24" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="J24" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="K24" t="n">
-        <v>45.76878079825749</v>
+        <v>45.76878079825747</v>
       </c>
       <c r="L24" t="n">
-        <v>45.76878079825749</v>
+        <v>45.76878079825747</v>
       </c>
       <c r="M24" t="n">
-        <v>129.4681498405794</v>
+        <v>129.4681498405791</v>
       </c>
       <c r="N24" t="n">
-        <v>213.1675188829013</v>
+        <v>213.1675188829007</v>
       </c>
       <c r="O24" t="n">
-        <v>296.8668879252232</v>
+        <v>254.4798998155435</v>
       </c>
       <c r="P24" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578651</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.1792688578663</v>
+        <v>338.1792688578651</v>
       </c>
       <c r="R24" t="n">
-        <v>338.1792688578663</v>
+        <v>252.7804635907274</v>
       </c>
       <c r="S24" t="n">
-        <v>338.1792688578663</v>
+        <v>167.3816583235898</v>
       </c>
       <c r="T24" t="n">
-        <v>338.1792688578663</v>
+        <v>81.9828530564521</v>
       </c>
       <c r="U24" t="n">
-        <v>338.1792688578663</v>
+        <v>81.9828530564521</v>
       </c>
       <c r="V24" t="n">
-        <v>338.1792688578663</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="W24" t="n">
-        <v>338.1792688578663</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="X24" t="n">
-        <v>252.7804635907283</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="Y24" t="n">
-        <v>252.7804635907283</v>
+        <v>6.763585377157303</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="C25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="D25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="E25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="F25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="G25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="H25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="I25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="J25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="K25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="L25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="M25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="N25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="O25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="P25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="R25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="S25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="T25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="U25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="V25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="W25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="X25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.763585377157327</v>
+        <v>6.763585377157303</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1025.021363618495</v>
+        <v>1025.021363618494</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112832</v>
+        <v>886.2687840112828</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131136</v>
+        <v>760.0751314131131</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8342541488744</v>
+        <v>599.8342541488739</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559712</v>
+        <v>407.5526318559707</v>
       </c>
       <c r="G26" t="n">
-        <v>199.486421061638</v>
+        <v>199.4864210616374</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563439</v>
+        <v>64.07610855563385</v>
       </c>
       <c r="I26" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8183046963236</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994711</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432939</v>
+        <v>636.7402271432941</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411875</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.623234335056</v>
+        <v>1218.623234335057</v>
       </c>
       <c r="O26" t="n">
         <v>1465.587697007408</v>
@@ -6251,16 +6251,16 @@
         <v>1804.829217230179</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.284789810545</v>
+        <v>1790.284789810544</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.615984973873</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U26" t="n">
         <v>1742.930001674769</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.799355170615</v>
+        <v>1633.799355170614</v>
       </c>
       <c r="W26" t="n">
         <v>1507.480142791092</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>359.9002803668639</v>
+        <v>142.1021808505166</v>
       </c>
       <c r="C27" t="n">
-        <v>359.9002803668639</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D27" t="n">
-        <v>359.9002803668639</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E27" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F27" t="n">
-        <v>186.3370764882783</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G27" t="n">
         <v>36.09658434460358</v>
@@ -6324,31 +6324,31 @@
         <v>801.8233632992858</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8233632992858</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="R27" t="n">
-        <v>801.8233632992858</v>
+        <v>660.0529655459869</v>
       </c>
       <c r="S27" t="n">
-        <v>801.8233632992858</v>
+        <v>660.0529655459869</v>
       </c>
       <c r="T27" t="n">
-        <v>799.6978977085654</v>
+        <v>657.9274999552665</v>
       </c>
       <c r="U27" t="n">
-        <v>560.0740181830259</v>
+        <v>633.2939674701709</v>
       </c>
       <c r="V27" t="n">
-        <v>531.9846471271038</v>
+        <v>605.2045964142487</v>
       </c>
       <c r="W27" t="n">
-        <v>375.0682737339522</v>
+        <v>335.8060271445401</v>
       </c>
       <c r="X27" t="n">
-        <v>370.5506263910924</v>
+        <v>331.2883798016802</v>
       </c>
       <c r="Y27" t="n">
-        <v>359.9002803668639</v>
+        <v>320.6380337774517</v>
       </c>
     </row>
     <row r="28">
@@ -6376,55 +6376,55 @@
         <v>36.09658434460358</v>
       </c>
       <c r="H28" t="n">
-        <v>82.69056256868618</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I28" t="n">
-        <v>130.3608329231964</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J28" t="n">
-        <v>222.4180914867281</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K28" t="n">
-        <v>222.4180914867281</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="L28" t="n">
-        <v>222.4180914867281</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="M28" t="n">
-        <v>222.4180914867281</v>
+        <v>117.3055954998837</v>
       </c>
       <c r="N28" t="n">
-        <v>222.4180914867281</v>
+        <v>117.3055954998837</v>
       </c>
       <c r="O28" t="n">
-        <v>222.4180914867281</v>
+        <v>117.3055954998837</v>
       </c>
       <c r="P28" t="n">
-        <v>222.4180914867281</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772724</v>
+        <v>248.0483630772726</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401893</v>
+        <v>237.0405152401895</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527234</v>
+        <v>160.4588835527235</v>
       </c>
       <c r="V28" t="n">
         <v>127.8643667704906</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685831</v>
+        <v>49.61157533685836</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837029</v>
+        <v>40.44085630837031</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09658434460358</v>
@@ -6440,22 +6440,22 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112828</v>
+        <v>886.2687840112826</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131132</v>
+        <v>760.075131413113</v>
       </c>
       <c r="E29" t="n">
         <v>599.8342541488738</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559706</v>
+        <v>407.5526318559707</v>
       </c>
       <c r="G29" t="n">
         <v>199.4864210616374</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563382</v>
+        <v>64.07610855563379</v>
       </c>
       <c r="I29" t="n">
         <v>36.09658434460358</v>
@@ -6464,13 +6464,13 @@
         <v>171.8183046963238</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432941</v>
+        <v>636.740227143294</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411878</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335057</v>
@@ -6488,22 +6488,22 @@
         <v>1804.829217230179</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.284789810545</v>
+        <v>1790.284789810544</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.615984973873</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.930001674769</v>
+        <v>1742.930001674768</v>
       </c>
       <c r="V29" t="n">
         <v>1633.799355170614</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.896915949599</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.5243006273595</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C30" t="n">
-        <v>196.5243006273595</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D30" t="n">
-        <v>196.5243006273595</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E30" t="n">
-        <v>196.5243006273595</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F30" t="n">
         <v>36.09658434460358</v>
@@ -6564,28 +6564,28 @@
         <v>801.8233632992858</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8233632992858</v>
+        <v>666.1514850647809</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992858</v>
+        <v>666.1514850647809</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085654</v>
+        <v>664.0260194740605</v>
       </c>
       <c r="U30" t="n">
-        <v>560.0740181830259</v>
+        <v>639.3924869889648</v>
       </c>
       <c r="V30" t="n">
-        <v>531.9846471271038</v>
+        <v>396.3127688925989</v>
       </c>
       <c r="W30" t="n">
-        <v>477.5764248978389</v>
+        <v>341.9045466633341</v>
       </c>
       <c r="X30" t="n">
-        <v>258.0684305145353</v>
+        <v>261.7372774092759</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.4180844903068</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="31">
@@ -6616,52 +6616,52 @@
         <v>36.09658434460358</v>
       </c>
       <c r="I31" t="n">
-        <v>83.76685469911379</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J31" t="n">
-        <v>83.76685469911379</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K31" t="n">
-        <v>83.76685469911379</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="L31" t="n">
-        <v>117.3055954998835</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="M31" t="n">
-        <v>117.3055954998835</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="N31" t="n">
-        <v>117.3055954998835</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="O31" t="n">
-        <v>117.3055954998835</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7780407246697</v>
+        <v>185.5578703684207</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246696</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772724</v>
+        <v>248.0483630772723</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401893</v>
+        <v>237.0405152401892</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527234</v>
+        <v>160.4588835527233</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8643667704906</v>
+        <v>127.8643667704905</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685831</v>
+        <v>49.61157533685824</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837029</v>
+        <v>40.44085630837025</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09658434460358</v>
@@ -6677,28 +6677,28 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112823</v>
+        <v>886.2687840112827</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131128</v>
+        <v>760.0751314131131</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488735</v>
+        <v>599.8342541488739</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559705</v>
+        <v>407.5526318559708</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616374</v>
+        <v>199.4864210616375</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563382</v>
+        <v>64.07610855563394</v>
       </c>
       <c r="I32" t="n">
         <v>36.09658434460358</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963238</v>
+        <v>171.818304696324</v>
       </c>
       <c r="K32" t="n">
         <v>377.4043607994718</v>
@@ -6731,16 +6731,16 @@
         <v>1780.615984973872</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674769</v>
       </c>
       <c r="V32" t="n">
         <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791091</v>
+        <v>1507.480142791092</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.05360670557</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.896915949599</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>68.88223156337168</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C33" t="n">
-        <v>68.88223156337168</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D33" t="n">
-        <v>68.88223156337168</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E33" t="n">
-        <v>68.88223156337168</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F33" t="n">
-        <v>68.88223156337168</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G33" t="n">
         <v>36.09658434460358</v>
@@ -6810,19 +6810,19 @@
         <v>799.6978977085654</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0643652234697</v>
+        <v>563.7428650777665</v>
       </c>
       <c r="V33" t="n">
-        <v>531.9846471271038</v>
+        <v>320.6631469814006</v>
       </c>
       <c r="W33" t="n">
-        <v>262.5860778573951</v>
+        <v>51.26457771169191</v>
       </c>
       <c r="X33" t="n">
-        <v>258.0684305145353</v>
+        <v>46.7469303688321</v>
       </c>
       <c r="Y33" t="n">
-        <v>247.4180844903068</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="34">
@@ -6862,22 +6862,22 @@
         <v>36.09658434460358</v>
       </c>
       <c r="L34" t="n">
-        <v>215.7825269532048</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="M34" t="n">
-        <v>215.7825269532048</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="N34" t="n">
-        <v>215.7825269532048</v>
+        <v>86.8459347155422</v>
       </c>
       <c r="O34" t="n">
-        <v>215.7825269532048</v>
+        <v>261.2184455169719</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7780407246697</v>
+        <v>261.2184455169719</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246697</v>
+        <v>261.2184455169719</v>
       </c>
       <c r="R34" t="n">
         <v>270.7780407246697</v>
@@ -6895,10 +6895,10 @@
         <v>127.8643667704906</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685831</v>
+        <v>49.6115753368583</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837029</v>
+        <v>40.44085630837028</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09658434460358</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358909</v>
+        <v>852.8410737358895</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151714</v>
+        <v>737.7194519151702</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034941</v>
+        <v>635.156757103493</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257473</v>
+        <v>498.5468376257462</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193365</v>
+        <v>329.8961731193354</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114955</v>
+        <v>145.4609201114945</v>
       </c>
       <c r="H35" t="n">
-        <v>33.6815653919842</v>
+        <v>33.68156539198419</v>
       </c>
       <c r="I35" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J35" t="n">
-        <v>29.3329989674463</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K35" t="n">
-        <v>88.38290619802319</v>
+        <v>416.9621788753963</v>
       </c>
       <c r="L35" t="n">
-        <v>370.8794742683871</v>
+        <v>465.5860060848801</v>
       </c>
       <c r="M35" t="n">
-        <v>687.731551392822</v>
+        <v>782.438083209315</v>
       </c>
       <c r="N35" t="n">
-        <v>999.0838849132319</v>
+        <v>859.9176758688448</v>
       </c>
       <c r="O35" t="n">
-        <v>1035.336308451244</v>
+        <v>1057.92632296992</v>
       </c>
       <c r="P35" t="n">
-        <v>1256.002081456952</v>
+        <v>1278.592095975628</v>
       </c>
       <c r="Q35" t="n">
-        <v>1402.362428097128</v>
+        <v>1424.952442615804</v>
       </c>
       <c r="R35" t="n">
-        <v>1444.059933853639</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266196</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U35" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X35" t="n">
-        <v>1139.611401249982</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.0856682805036</v>
+        <v>992.0856682805022</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>384.5283424498818</v>
+        <v>212.6300606907806</v>
       </c>
       <c r="C36" t="n">
-        <v>384.5283424498818</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D36" t="n">
-        <v>223.7482262109136</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E36" t="n">
-        <v>223.7482262109136</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F36" t="n">
-        <v>63.32050992815769</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G36" t="n">
-        <v>63.32050992815769</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H36" t="n">
-        <v>63.32050992815769</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I36" t="n">
-        <v>63.32050992815769</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K36" t="n">
         <v>68.33819438854646</v>
@@ -7041,25 +7041,25 @@
         <v>659.3878996876236</v>
       </c>
       <c r="S36" t="n">
-        <v>659.3878996876236</v>
+        <v>465.9841257327504</v>
       </c>
       <c r="T36" t="n">
-        <v>659.3878996876236</v>
+        <v>248.8683131015862</v>
       </c>
       <c r="U36" t="n">
-        <v>658.3853249890203</v>
+        <v>247.8657384029829</v>
       </c>
       <c r="V36" t="n">
-        <v>653.9269117195905</v>
+        <v>243.4073251335531</v>
       </c>
       <c r="W36" t="n">
-        <v>384.5283424498818</v>
+        <v>212.6300606907806</v>
       </c>
       <c r="X36" t="n">
-        <v>384.5283424498818</v>
+        <v>212.6300606907806</v>
       </c>
       <c r="Y36" t="n">
-        <v>384.5283424498818</v>
+        <v>212.6300606907806</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="F37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="G37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="H37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="I37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="J37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="K37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="L37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="M37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="N37" t="n">
-        <v>29.3329989674463</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="O37" t="n">
-        <v>37.4881934285104</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="P37" t="n">
-        <v>37.4881934285104</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.8690655113003</v>
+        <v>100.7768585156453</v>
       </c>
       <c r="R37" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498843</v>
       </c>
       <c r="S37" t="n">
-        <v>145.8690655113003</v>
+        <v>133.4971554498843</v>
       </c>
       <c r="T37" t="n">
         <v>145.8690655113003</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032674</v>
+        <v>92.91839161032672</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458622</v>
+        <v>83.95483261458621</v>
       </c>
       <c r="W37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358895</v>
+        <v>852.8410737358898</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151703</v>
+        <v>737.7194519151708</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034932</v>
+        <v>635.1567571034936</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257464</v>
+        <v>498.5468376257465</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193357</v>
+        <v>329.8961731193358</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114953</v>
+        <v>145.4609201114949</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198412</v>
+        <v>33.68156539198416</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J38" t="n">
         <v>188.2154210457076</v>
       </c>
       <c r="K38" t="n">
-        <v>188.2154210457076</v>
+        <v>416.9621788753964</v>
       </c>
       <c r="L38" t="n">
-        <v>470.7119891160715</v>
+        <v>591.5452472740938</v>
       </c>
       <c r="M38" t="n">
-        <v>553.6913253796263</v>
+        <v>674.5245835376486</v>
       </c>
       <c r="N38" t="n">
-        <v>865.0436589000362</v>
+        <v>985.8769170580586</v>
       </c>
       <c r="O38" t="n">
-        <v>1135.168823298929</v>
+        <v>1256.002081456951</v>
       </c>
       <c r="P38" t="n">
-        <v>1355.834596304637</v>
+        <v>1256.002081456951</v>
       </c>
       <c r="Q38" t="n">
-        <v>1444.059933853637</v>
+        <v>1402.362428097128</v>
       </c>
       <c r="R38" t="n">
-        <v>1444.059933853637</v>
+        <v>1444.059933853638</v>
       </c>
       <c r="S38" t="n">
-        <v>1452.965642266194</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372313</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U38" t="n">
         <v>1452.594922859702</v>
@@ -7217,7 +7217,7 @@
         <v>1139.61140124998</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805021</v>
+        <v>992.0856682805024</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>281.5789158574506</v>
+        <v>58.3645837074925</v>
       </c>
       <c r="C39" t="n">
-        <v>281.5789158574506</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D39" t="n">
-        <v>120.7987996184824</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E39" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I39" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854643</v>
+        <v>68.33819438854646</v>
       </c>
       <c r="L39" t="n">
-        <v>187.072035506909</v>
+        <v>187.0720355069091</v>
       </c>
       <c r="M39" t="n">
-        <v>370.3834919960095</v>
+        <v>370.3834919960096</v>
       </c>
       <c r="N39" t="n">
-        <v>576.9665468449937</v>
+        <v>576.9665468449938</v>
       </c>
       <c r="O39" t="n">
-        <v>710.2026003957704</v>
+        <v>710.2026003957706</v>
       </c>
       <c r="P39" t="n">
-        <v>795.0597779221284</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.0597779221284</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="R39" t="n">
-        <v>795.0597779221284</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="S39" t="n">
-        <v>795.0597779221284</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="T39" t="n">
-        <v>795.0597779221284</v>
+        <v>571.8454457721704</v>
       </c>
       <c r="U39" t="n">
-        <v>794.0572032235252</v>
+        <v>332.2215662466309</v>
       </c>
       <c r="V39" t="n">
-        <v>550.9774851271593</v>
+        <v>327.7631529772012</v>
       </c>
       <c r="W39" t="n">
-        <v>281.5789158574506</v>
+        <v>58.3645837074925</v>
       </c>
       <c r="X39" t="n">
-        <v>281.5789158574506</v>
+        <v>58.3645837074925</v>
       </c>
       <c r="Y39" t="n">
-        <v>281.5789158574506</v>
+        <v>58.3645837074925</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G40" t="n">
-        <v>75.03809343024874</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H40" t="n">
-        <v>75.03809343024874</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="O40" t="n">
-        <v>145.8690655113001</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="P40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113001</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032659</v>
+        <v>92.91839161032667</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458614</v>
+        <v>83.95483261458618</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358901</v>
+        <v>852.8410737358899</v>
       </c>
       <c r="C41" t="n">
         <v>737.7194519151708</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034935</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257469</v>
+        <v>498.5468376257468</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193361</v>
+        <v>329.896173119336</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114952</v>
+        <v>145.4609201114953</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198414</v>
+        <v>33.68156539198416</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K41" t="n">
-        <v>416.9621788753963</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L41" t="n">
-        <v>699.4587469457601</v>
+        <v>311.8295670378101</v>
       </c>
       <c r="M41" t="n">
-        <v>963.779136261157</v>
+        <v>628.6816441622451</v>
       </c>
       <c r="N41" t="n">
-        <v>1041.258728920687</v>
+        <v>815.8143582214182</v>
       </c>
       <c r="O41" t="n">
-        <v>1311.383893319579</v>
+        <v>1085.939522620311</v>
       </c>
       <c r="P41" t="n">
-        <v>1311.383893319579</v>
+        <v>1306.605295626018</v>
       </c>
       <c r="Q41" t="n">
-        <v>1457.744239959756</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="R41" t="n">
-        <v>1457.744239959756</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="S41" t="n">
-        <v>1466.649948372313</v>
+        <v>1452.965642266195</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372313</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U41" t="n">
         <v>1452.594922859702</v>
@@ -7454,7 +7454,7 @@
         <v>1139.61140124998</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805025</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>350.5408314891704</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C42" t="n">
-        <v>350.5408314891704</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D42" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E42" t="n">
-        <v>189.7607152502022</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F42" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G42" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H42" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I42" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K42" t="n">
-        <v>68.33819438854643</v>
+        <v>68.33819438854646</v>
       </c>
       <c r="L42" t="n">
-        <v>187.072035506909</v>
+        <v>187.0720355069091</v>
       </c>
       <c r="M42" t="n">
-        <v>370.3834919960095</v>
+        <v>370.3834919960096</v>
       </c>
       <c r="N42" t="n">
-        <v>576.9665468449937</v>
+        <v>576.9665468449938</v>
       </c>
       <c r="O42" t="n">
-        <v>710.2026003957704</v>
+        <v>710.2026003957706</v>
       </c>
       <c r="P42" t="n">
-        <v>795.0597779221284</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="Q42" t="n">
-        <v>795.0597779221284</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="R42" t="n">
-        <v>795.0597779221284</v>
+        <v>653.2893801688297</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0597779221284</v>
+        <v>542.8138610321242</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0597779221284</v>
+        <v>542.8138610321242</v>
       </c>
       <c r="U42" t="n">
-        <v>794.0572032235251</v>
+        <v>541.8112863335209</v>
       </c>
       <c r="V42" t="n">
-        <v>550.9774851271592</v>
+        <v>298.7315682371549</v>
       </c>
       <c r="W42" t="n">
-        <v>350.5408314891704</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X42" t="n">
-        <v>350.5408314891704</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y42" t="n">
-        <v>350.5408314891704</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="43">
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113002</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113002</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="P43" t="n">
         <v>145.8690655113002</v>
@@ -7600,19 +7600,19 @@
         <v>145.8690655113002</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032665</v>
+        <v>92.91839161032667</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458617</v>
+        <v>83.95483261458618</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358898</v>
+        <v>852.8410737358901</v>
       </c>
       <c r="C44" t="n">
-        <v>737.7194519151708</v>
+        <v>737.719451915171</v>
       </c>
       <c r="D44" t="n">
         <v>635.1567571034936</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257469</v>
+        <v>498.5468376257465</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193361</v>
+        <v>329.8961731193357</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114953</v>
+        <v>145.4609201114947</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198414</v>
+        <v>33.68156539198421</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J44" t="n">
-        <v>93.50888922921271</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K44" t="n">
-        <v>322.2556470589014</v>
+        <v>416.9621788753963</v>
       </c>
       <c r="L44" t="n">
-        <v>604.7522151292653</v>
+        <v>699.4587469457601</v>
       </c>
       <c r="M44" t="n">
-        <v>687.7315513928202</v>
+        <v>1016.310824070195</v>
       </c>
       <c r="N44" t="n">
-        <v>999.0838849132301</v>
+        <v>1093.790416729725</v>
       </c>
       <c r="O44" t="n">
-        <v>1035.336308451243</v>
+        <v>1269.68638756307</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.00208145695</v>
+        <v>1269.68638756307</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.362428097127</v>
+        <v>1416.046734203247</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853637</v>
+        <v>1457.744239959757</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266194</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372313</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W44" t="n">
         <v>1264.40697954901</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.61140124998</v>
+        <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805024</v>
+        <v>992.0856682805028</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>202.8962028460318</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C45" t="n">
-        <v>202.8962028460318</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D45" t="n">
-        <v>202.8962028460318</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E45" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F45" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G45" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854643</v>
+        <v>68.33819438854646</v>
       </c>
       <c r="L45" t="n">
-        <v>187.072035506909</v>
+        <v>187.0720355069091</v>
       </c>
       <c r="M45" t="n">
-        <v>370.3834919960095</v>
+        <v>370.3834919960096</v>
       </c>
       <c r="N45" t="n">
-        <v>576.9665468449937</v>
+        <v>576.9665468449938</v>
       </c>
       <c r="O45" t="n">
-        <v>710.2026003957704</v>
+        <v>710.2026003957706</v>
       </c>
       <c r="P45" t="n">
-        <v>795.0597779221284</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.0597779221284</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="R45" t="n">
-        <v>795.0597779221284</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="S45" t="n">
-        <v>601.6560039672552</v>
+        <v>595.5574844484613</v>
       </c>
       <c r="T45" t="n">
-        <v>601.6560039672552</v>
+        <v>595.5574844484613</v>
       </c>
       <c r="U45" t="n">
-        <v>600.6534292686518</v>
+        <v>468.7452226712561</v>
       </c>
       <c r="V45" t="n">
-        <v>596.1950159992222</v>
+        <v>464.2868094018263</v>
       </c>
       <c r="W45" t="n">
-        <v>565.4177515564497</v>
+        <v>433.5095449590538</v>
       </c>
       <c r="X45" t="n">
-        <v>565.4177515564497</v>
+        <v>433.5095449590538</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.7770584917774</v>
+        <v>207.8688518943814</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C46" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D46" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E46" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F46" t="n">
-        <v>29.33299896744627</v>
+        <v>125.6681264320642</v>
       </c>
       <c r="G46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="H46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="I46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="J46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="K46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="L46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="M46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="N46" t="n">
-        <v>29.33299896744627</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="O46" t="n">
-        <v>145.8690655113002</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="P46" t="n">
-        <v>145.8690655113002</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.8690655113002</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8690655113002</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="S46" t="n">
-        <v>145.8690655113002</v>
+        <v>133.4971554498844</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113004</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032665</v>
+        <v>92.91839161032678</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458617</v>
+        <v>83.95483261458624</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X46" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.33299896744627</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
   </sheetData>
@@ -8769,10 +8769,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L12" t="n">
-        <v>204.9161881242768</v>
+        <v>201.5002359135913</v>
       </c>
       <c r="M12" t="n">
         <v>201.1586111617383</v>
@@ -8781,7 +8781,7 @@
         <v>186.4889234163775</v>
       </c>
       <c r="O12" t="n">
-        <v>162.370588327549</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P12" t="n">
         <v>120.6495533449843</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>162.1010486195512</v>
+        <v>162.1010486195507</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617387</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N15" t="n">
         <v>101.9441062019114</v>
       </c>
       <c r="O15" t="n">
-        <v>205.1857278322755</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594509</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L18" t="n">
-        <v>204.9161881242772</v>
+        <v>201.5002359135913</v>
       </c>
       <c r="M18" t="n">
-        <v>158.3434716570127</v>
+        <v>201.1586111617383</v>
       </c>
       <c r="N18" t="n">
         <v>101.9441062019114</v>
       </c>
       <c r="O18" t="n">
-        <v>205.1857278322755</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1943705594509</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>204.9161881242772</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6137939472722</v>
+        <v>158.3434716570122</v>
       </c>
       <c r="N21" t="n">
-        <v>143.6737839116519</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O21" t="n">
-        <v>205.1857278322755</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P21" t="n">
-        <v>205.1943705594509</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9723,16 +9723,16 @@
         <v>120.3713709098107</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1586111617387</v>
+        <v>201.1586111617384</v>
       </c>
       <c r="N24" t="n">
-        <v>186.488923416378</v>
+        <v>186.4889234163776</v>
       </c>
       <c r="O24" t="n">
-        <v>205.1857278322755</v>
+        <v>162.3705883275491</v>
       </c>
       <c r="P24" t="n">
-        <v>162.3792310547249</v>
+        <v>205.1943705594506</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.43098143720265</v>
+        <v>169.9757986516688</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0940556550143</v>
+        <v>140.7930909518133</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160628</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E11" t="n">
         <v>167.3674703354716</v>
       </c>
       <c r="F11" t="n">
-        <v>124.6207329113472</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G11" t="n">
-        <v>130.1697333157986</v>
+        <v>214.7145505302647</v>
       </c>
       <c r="H11" t="n">
         <v>142.7852112248184</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279483</v>
+        <v>36.42873081279476</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931305</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863218008</v>
+        <v>18.30111863218002</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998769</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7683418829875</v>
+        <v>32.22352466852132</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996024</v>
+        <v>133.7850220996023</v>
       </c>
       <c r="X11" t="n">
-        <v>155.6712725685416</v>
+        <v>71.12645535407543</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.62930847781921</v>
+        <v>93.62930847781919</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.65444814870466</v>
+        <v>1.654448148704631</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>85.43098143720221</v>
+        <v>85.43098143720266</v>
       </c>
       <c r="C14" t="n">
         <v>146.0940556550143</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6607179160628</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E14" t="n">
         <v>167.3674703354716</v>
       </c>
       <c r="F14" t="n">
-        <v>142.9218515435269</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G14" t="n">
         <v>214.7145505302648</v>
       </c>
       <c r="H14" t="n">
-        <v>142.7852112248184</v>
+        <v>58.24039401035228</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279483</v>
+        <v>36.42873081279479</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931305</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863218005</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998769</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>32.22352466852092</v>
+        <v>32.22352466852135</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996024</v>
+        <v>133.7850220996023</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6712725685416</v>
+        <v>150.3703078653405</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.6293084778188</v>
+        <v>178.1741256922853</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.654448148704233</v>
+        <v>1.65444814870466</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918771.2720863256</v>
+        <v>918771.2720863251</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>595304.0967441107</v>
       </c>
       <c r="C2" t="n">
-        <v>595304.0967441105</v>
+        <v>595304.0967441103</v>
       </c>
       <c r="D2" t="n">
         <v>595304.0967441105</v>
@@ -26323,37 +26323,37 @@
         <v>512993.3100888235</v>
       </c>
       <c r="F2" t="n">
-        <v>512993.3100888234</v>
+        <v>512993.3100888235</v>
       </c>
       <c r="G2" t="n">
-        <v>596510.0204795119</v>
+        <v>596510.0204795118</v>
       </c>
       <c r="H2" t="n">
-        <v>596510.0204795122</v>
+        <v>596510.0204795117</v>
       </c>
       <c r="I2" t="n">
-        <v>596510.0204795119</v>
+        <v>596510.0204795118</v>
       </c>
       <c r="J2" t="n">
-        <v>596510.0204795114</v>
+        <v>596510.0204795111</v>
       </c>
       <c r="K2" t="n">
-        <v>596510.0204795109</v>
+        <v>596510.0204795112</v>
       </c>
       <c r="L2" t="n">
-        <v>596510.0204795111</v>
+        <v>596510.0204795115</v>
       </c>
       <c r="M2" t="n">
-        <v>596510.0204795125</v>
+        <v>596510.0204795118</v>
       </c>
       <c r="N2" t="n">
-        <v>596510.0204795118</v>
+        <v>596510.0204795121</v>
       </c>
       <c r="O2" t="n">
         <v>596510.0204795122</v>
       </c>
       <c r="P2" t="n">
-        <v>596510.0204795122</v>
+        <v>596510.0204795121</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.040755637</v>
+        <v>272248.0407556371</v>
       </c>
       <c r="F3" t="n">
-        <v>1.180816013857111e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105057.1604753342</v>
+        <v>105057.1604753343</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161150.2341536787</v>
+        <v>161150.2341536786</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>105057.1604753342</v>
+        <v>105057.1604753343</v>
       </c>
       <c r="M3" t="n">
         <v>18715.71856690193</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069734</v>
+        <v>65215.19438069724</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>483119.1666438953</v>
       </c>
       <c r="E4" t="n">
+        <v>377535.384472361</v>
+      </c>
+      <c r="F4" t="n">
         <v>377535.3844723609</v>
-      </c>
-      <c r="F4" t="n">
-        <v>377535.384472361</v>
       </c>
       <c r="G4" t="n">
         <v>448063.6435868028</v>
@@ -26436,28 +26436,28 @@
         <v>448063.6435868028</v>
       </c>
       <c r="I4" t="n">
-        <v>448063.6435868027</v>
+        <v>448063.6435868028</v>
       </c>
       <c r="J4" t="n">
+        <v>448080.6067479625</v>
+      </c>
+      <c r="K4" t="n">
         <v>448080.6067479626</v>
-      </c>
-      <c r="K4" t="n">
-        <v>448080.6067479627</v>
       </c>
       <c r="L4" t="n">
         <v>448080.6067479626</v>
       </c>
       <c r="M4" t="n">
-        <v>447701.1427578538</v>
+        <v>447701.1427578537</v>
       </c>
       <c r="N4" t="n">
         <v>447701.1427578537</v>
       </c>
       <c r="O4" t="n">
-        <v>447701.1427578537</v>
+        <v>447701.1427578538</v>
       </c>
       <c r="P4" t="n">
-        <v>447701.1427578537</v>
+        <v>447701.1427578538</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862007</v>
+        <v>24571.35877862008</v>
       </c>
       <c r="F5" t="n">
-        <v>24571.3587786201</v>
+        <v>24571.35877862008</v>
       </c>
       <c r="G5" t="n">
-        <v>35611.42180862119</v>
+        <v>35611.42180862118</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862119</v>
+        <v>35611.42180862118</v>
       </c>
       <c r="I5" t="n">
         <v>35611.42180862118</v>
       </c>
       <c r="J5" t="n">
-        <v>47598.27644989197</v>
+        <v>47598.27644989196</v>
       </c>
       <c r="K5" t="n">
         <v>47598.27644989197</v>
@@ -26500,16 +26500,16 @@
         <v>47598.27644989197</v>
       </c>
       <c r="M5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350351</v>
+        <v>44424.71624350352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78557.33010021536</v>
+        <v>78552.86371601016</v>
       </c>
       <c r="C6" t="n">
-        <v>78557.33010021513</v>
+        <v>78552.86371600982</v>
       </c>
       <c r="D6" t="n">
-        <v>78557.33010021513</v>
+        <v>78552.86371600993</v>
       </c>
       <c r="E6" t="n">
-        <v>-161361.4739177945</v>
+        <v>-161670.7950673897</v>
       </c>
       <c r="F6" t="n">
-        <v>110886.5668378422</v>
+        <v>110577.2456882474</v>
       </c>
       <c r="G6" t="n">
-        <v>7777.794608753771</v>
+        <v>7777.794608753553</v>
       </c>
       <c r="H6" t="n">
-        <v>112834.9550840882</v>
+        <v>112834.9550840878</v>
       </c>
       <c r="I6" t="n">
-        <v>112834.9550840881</v>
+        <v>112834.9550840879</v>
       </c>
       <c r="J6" t="n">
-        <v>-60319.09687202191</v>
+        <v>-60319.09687202202</v>
       </c>
       <c r="K6" t="n">
-        <v>100831.1372816563</v>
+        <v>100831.1372816567</v>
       </c>
       <c r="L6" t="n">
-        <v>-4226.023193677654</v>
+        <v>-4226.023193677363</v>
       </c>
       <c r="M6" t="n">
-        <v>85668.44291125317</v>
+        <v>85668.44291125258</v>
       </c>
       <c r="N6" t="n">
-        <v>104384.1614781546</v>
+        <v>104384.1614781548</v>
       </c>
       <c r="O6" t="n">
-        <v>39168.9670974576</v>
+        <v>39168.96709745764</v>
       </c>
       <c r="P6" t="n">
-        <v>104384.1614781549</v>
+        <v>104384.1614781547</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
         <v>204.1114417261645</v>
       </c>
       <c r="G2" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H2" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I2" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="J2" t="n">
         <v>212.8404435700394</v>
@@ -26719,7 +26719,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O2" t="n">
         <v>236.2350917786668</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="F3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="G3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="H3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="I3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="J3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="K3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="L3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="M3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="N3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="O3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="P3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2073043075448</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2073043075448</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2073043075448</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930783</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930783</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930783</v>
+        <v>366.6624870930785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3214505941677</v>
+        <v>131.3214505941679</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587156</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941677</v>
+        <v>131.3214505941679</v>
       </c>
       <c r="M2" t="n">
         <v>23.39464820862742</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587167</v>
+        <v>81.51899297587156</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.2013347478719</v>
+        <v>104.201334747872</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="F4" t="n">
-        <v>4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930782</v>
+        <v>366.6624870930784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941677</v>
+        <v>131.3214505941679</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.5189929758717</v>
+        <v>81.51899297587156</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="N4" t="n">
-        <v>4.121147867408581e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="J11" t="n">
         <v>75.74779675012002</v>
       </c>
       <c r="K11" t="n">
-        <v>89.72257785203325</v>
+        <v>5.177760637567083</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.405186634146446</v>
       </c>
       <c r="M11" t="n">
-        <v>0.727305837138104</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.677880797008484</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34037157088128</v>
+        <v>97.8851887853474</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.39635779869053</v>
+        <v>88.39635779869052</v>
       </c>
       <c r="R11" t="n">
         <v>194.1163990953234</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="12">
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R12" t="n">
         <v>134.3151594521598</v>
@@ -28220,22 +28220,22 @@
         <v>106.9249190008584</v>
       </c>
       <c r="T12" t="n">
-        <v>136.1090822387901</v>
+        <v>136.1090822387899</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="13">
@@ -28263,31 +28263,31 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7758191012691</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6886553331604</v>
+        <v>170.4261686321399</v>
       </c>
       <c r="J13" t="n">
         <v>119.8533137078861</v>
       </c>
       <c r="K13" t="n">
-        <v>110.4683165616131</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L13" t="n">
-        <v>115.8843086546054</v>
+        <v>115.8843086546053</v>
       </c>
       <c r="M13" t="n">
-        <v>24.3603827851581</v>
+        <v>108.9051999996242</v>
       </c>
       <c r="N13" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O13" t="n">
-        <v>121.2514114901321</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P13" t="n">
-        <v>142.362588840277</v>
+        <v>142.3625888402769</v>
       </c>
       <c r="Q13" t="n">
         <v>126.7594634122123</v>
@@ -28296,25 +28296,25 @@
         <v>203.184286794587</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="14">
@@ -28348,10 +28348,10 @@
         <v>204.1114417261645</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74779675012002</v>
+        <v>156.4151981918724</v>
       </c>
       <c r="K14" t="n">
-        <v>5.17776063756709</v>
+        <v>5.177760637567083</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,16 +28360,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>6.282602406860718</v>
+        <v>6.282602406860263</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>94.00777301263497</v>
+        <v>13.34037157088127</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.39635779869053</v>
+        <v>88.39635779869052</v>
       </c>
       <c r="R14" t="n">
         <v>194.1163990953234</v>
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>102.9733343098993</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28448,25 +28448,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R15" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008584</v>
       </c>
       <c r="T15" t="n">
+        <v>136.10908223879</v>
+      </c>
+      <c r="U15" t="n">
         <v>204.1114417261645</v>
-      </c>
-      <c r="U15" t="n">
-        <v>158.0607576024083</v>
       </c>
       <c r="V15" t="n">
         <v>204.1114417261645</v>
       </c>
       <c r="W15" t="n">
-        <v>182.159766362545</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="X15" t="n">
         <v>204.1114417261645</v>
@@ -28485,22 +28485,22 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>204.1114417261645</v>
       </c>
       <c r="D16" t="n">
+        <v>145.1826502507107</v>
+      </c>
+      <c r="E16" t="n">
         <v>204.1114417261645</v>
       </c>
-      <c r="E16" t="n">
-        <v>141.676141212225</v>
-      </c>
       <c r="F16" t="n">
-        <v>204.1114417261645</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.6953110816783</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7758191012691</v>
+        <v>194.3042109714786</v>
       </c>
       <c r="I16" t="n">
         <v>164.6886553331604</v>
@@ -28509,22 +28509,22 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K16" t="n">
-        <v>70.8997827929072</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L16" t="n">
-        <v>115.8843086546058</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M16" t="n">
-        <v>24.3603827851581</v>
+        <v>108.9051999996242</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70659427566596</v>
+        <v>121.2514114901321</v>
       </c>
       <c r="P16" t="n">
-        <v>142.3625888402774</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7594634122123</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I17" t="n">
         <v>240.5401725389593</v>
@@ -28588,7 +28588,7 @@
         <v>75.74779675012002</v>
       </c>
       <c r="K17" t="n">
-        <v>5.17776063756709</v>
+        <v>5.177760637567083</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28600,13 +28600,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>47.9262075801106</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088128</v>
+        <v>97.8851887853474</v>
       </c>
       <c r="Q17" t="n">
-        <v>127.4201540671943</v>
+        <v>88.39635779869052</v>
       </c>
       <c r="R17" t="n">
         <v>194.1163990953234</v>
@@ -28621,16 +28621,16 @@
         <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>323.2849702432984</v>
       </c>
       <c r="W17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>74.27862190546176</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7380872222379</v>
@@ -28685,28 +28685,28 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769368</v>
       </c>
       <c r="S18" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9446545048526</v>
+        <v>146.5151138259568</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2276407302841</v>
+        <v>152.6828235158179</v>
       </c>
       <c r="V18" t="n">
-        <v>156.1041037009357</v>
+        <v>156.1041037009361</v>
       </c>
       <c r="W18" t="n">
-        <v>192.2375085745094</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>132.768097225004</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28755,7 +28755,7 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N19" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O19" t="n">
         <v>36.70659427566596</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I20" t="n">
         <v>240.5401725389593</v>
@@ -28825,13 +28825,13 @@
         <v>75.74779675012002</v>
       </c>
       <c r="K20" t="n">
-        <v>5.17776063756709</v>
+        <v>5.177760637567083</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7273058371385162</v>
+        <v>0.7273058371380472</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,16 +28840,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34037157088128</v>
+        <v>13.34037157088127</v>
       </c>
       <c r="Q20" t="n">
-        <v>172.9411750131571</v>
+        <v>88.39635779869052</v>
       </c>
       <c r="R20" t="n">
         <v>194.1163990953234</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2394267154776</v>
+        <v>311.7842439299437</v>
       </c>
       <c r="T20" t="n">
         <v>222.4125603583446</v>
@@ -28858,16 +28858,16 @@
         <v>250.1495670361522</v>
       </c>
       <c r="V20" t="n">
-        <v>322.5576644061613</v>
+        <v>322.5576644061604</v>
       </c>
       <c r="W20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y20" t="n">
-        <v>335.4328923203323</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="21">
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>97.36049683729794</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R21" t="n">
-        <v>59.84808444965765</v>
+        <v>49.77034223769368</v>
       </c>
       <c r="S21" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T21" t="n">
-        <v>130.399837290386</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276407302841</v>
+        <v>152.6828235158179</v>
       </c>
       <c r="V21" t="n">
-        <v>156.1041037009357</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>132.768097225004</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195595</v>
       </c>
     </row>
     <row r="22">
@@ -28992,7 +28992,7 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N22" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O22" t="n">
         <v>36.70659427566596</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="C23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="D23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="E23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="F23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="G23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="H23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="I23" t="n">
         <v>240.5401725389593</v>
@@ -29062,7 +29062,7 @@
         <v>75.74779675012002</v>
       </c>
       <c r="K23" t="n">
-        <v>5.17776063756709</v>
+        <v>5.177760637567083</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,16 +29074,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.40518663414781</v>
+        <v>2.405186634146879</v>
       </c>
       <c r="P23" t="n">
-        <v>97.88518878534785</v>
+        <v>13.34037157088127</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.39635779869053</v>
+        <v>88.39635779869052</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1163990953234</v>
+        <v>278.6612163097897</v>
       </c>
       <c r="S23" t="n">
         <v>227.2394267154776</v>
@@ -29098,13 +29098,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="X23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="Y23" t="n">
-        <v>335.4328923203322</v>
+        <v>335.4328923203324</v>
       </c>
     </row>
     <row r="24">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.2834193951636</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>74.62749786211197</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,7 +29129,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>64.19327000777135</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H24" t="n">
         <v>125.6725816482287</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769353</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008583</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9446545048526</v>
+        <v>130.3998372903863</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276407302841</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>166.1818459129004</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>132.768097225004</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29229,7 +29229,7 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N25" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O25" t="n">
         <v>36.70659427566596</v>
@@ -29299,7 +29299,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700395</v>
       </c>
       <c r="L26" t="n">
         <v>212.8404435700394</v>
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>82.57261098351206</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H27" t="n">
         <v>125.6725816482287</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4697362153245</v>
@@ -29408,13 +29408,13 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V27" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="W27" t="n">
-        <v>111.3573739177915</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.8404435700394</v>
@@ -29448,13 +29448,13 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H28" t="n">
-        <v>212.8404435700394</v>
+        <v>165.7758191012691</v>
       </c>
       <c r="I28" t="n">
-        <v>212.8404435700394</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J28" t="n">
-        <v>212.8404435700394</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K28" t="n">
         <v>66.39518063773792</v>
@@ -29463,19 +29463,19 @@
         <v>31.33949144013922</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3603827851581</v>
+        <v>106.3896869824108</v>
       </c>
       <c r="N28" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O28" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P28" t="n">
-        <v>57.81777162581083</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q28" t="n">
-        <v>175.6078969858907</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R28" t="n">
         <v>203.184286794587</v>
@@ -29539,7 +29539,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700393</v>
       </c>
       <c r="M29" t="n">
         <v>212.8404435700394</v>
@@ -29554,7 +29554,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8404435700399</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R29" t="n">
         <v>212.8404435700394</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.3656483733479</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7380872222379</v>
@@ -29633,10 +29633,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.4697362153245</v>
@@ -29645,19 +29645,19 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>137.947317877953</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29688,7 +29688,7 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8404435700394</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J31" t="n">
         <v>119.8533137078861</v>
@@ -29697,22 +29697,22 @@
         <v>66.39518063773792</v>
       </c>
       <c r="L31" t="n">
-        <v>65.21700740051264</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M31" t="n">
-        <v>24.3603827851581</v>
+        <v>175.3313787688118</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O31" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P31" t="n">
+        <v>57.81777162581083</v>
+      </c>
+      <c r="Q31" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>126.7594634122123</v>
       </c>
       <c r="R31" t="n">
         <v>203.184286794587</v>
@@ -29773,7 +29773,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8404435700399</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="L32" t="n">
         <v>212.8404435700394</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29840,7 +29840,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>116.2802964756575</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H33" t="n">
         <v>125.6725816482287</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R33" t="n">
         <v>134.3151594521598</v>
@@ -29882,7 +29882,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8404435700394</v>
+        <v>3.632158425793193</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29934,25 +29934,25 @@
         <v>66.39518063773792</v>
       </c>
       <c r="L34" t="n">
-        <v>212.8404435700394</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M34" t="n">
         <v>24.3603827851581</v>
       </c>
       <c r="N34" t="n">
-        <v>15.68403999776786</v>
+        <v>66.94601006942302</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70659427566596</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P34" t="n">
-        <v>113.3687956373916</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7594634122123</v>
       </c>
       <c r="R34" t="n">
-        <v>203.184286794587</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S34" t="n">
         <v>212.8404435700394</v>
@@ -30007,22 +30007,22 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J35" t="n">
-        <v>75.74779675012002</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K35" t="n">
-        <v>64.82413157754374</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="N35" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>163.3901248111745</v>
       </c>
       <c r="P35" t="n">
         <v>236.2350917786668</v>
@@ -30034,10 +30034,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="S35" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T35" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U35" t="n">
         <v>236.2350917786668</v>
@@ -30065,16 +30065,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>6.054060418264953</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380872222379</v>
@@ -30086,7 +30086,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J36" t="n">
-        <v>18.21179710424877</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,16 +30107,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323606007</v>
+        <v>6.037534323606003</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>236.2350917786668</v>
@@ -30125,7 +30125,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>213.8416559073755</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30177,25 +30177,25 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N37" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O37" t="n">
-        <v>44.94416443835698</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P37" t="n">
         <v>57.81777162581083</v>
       </c>
       <c r="Q37" t="n">
+        <v>126.7594634122123</v>
+      </c>
+      <c r="R37" t="n">
         <v>236.2350917786668</v>
-      </c>
-      <c r="R37" t="n">
-        <v>203.184286794587</v>
       </c>
       <c r="S37" t="n">
         <v>235.3428244409627</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7382129287516</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U37" t="n">
         <v>236.2350917786668</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K38" t="n">
-        <v>5.17776063756709</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2350917786669</v>
+        <v>127.2315567567815</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786669</v>
+        <v>13.34037157088127</v>
       </c>
       <c r="Q38" t="n">
-        <v>177.5128603734382</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R38" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="39">
@@ -30302,13 +30302,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>158.7768826317202</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>81.27642919527392</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.3151594521598</v>
@@ -30353,13 +30353,13 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>236.2350917786669</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30393,13 +30393,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>214.8620731653172</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H40" t="n">
         <v>165.7758191012691</v>
       </c>
       <c r="I40" t="n">
-        <v>236.2350917786669</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J40" t="n">
         <v>119.8533137078861</v>
@@ -30414,13 +30414,13 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N40" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O40" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81777162581083</v>
+        <v>175.5309701549562</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7594634122123</v>
@@ -30435,13 +30435,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786669</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,25 +30481,25 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786668</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786668</v>
+        <v>5.177760637567083</v>
       </c>
       <c r="L41" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="M41" t="n">
-        <v>183.1727808604465</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.7607286865083</v>
       </c>
       <c r="O41" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="P41" t="n">
-        <v>13.34037157088128</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q41" t="n">
         <v>236.2350917786668</v>
@@ -30508,10 +30508,10 @@
         <v>194.1163990953234</v>
       </c>
       <c r="S41" t="n">
+        <v>227.2394267154776</v>
+      </c>
+      <c r="T41" t="n">
         <v>236.2350917786668</v>
-      </c>
-      <c r="T41" t="n">
-        <v>222.4125603583446</v>
       </c>
       <c r="U41" t="n">
         <v>236.2350917786668</v>
@@ -30542,13 +30542,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7380872222379</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4697362153245</v>
+        <v>82.09897226998616</v>
       </c>
       <c r="T42" t="n">
         <v>214.9446545048526</v>
@@ -30599,7 +30599,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>68.2722964754027</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30651,13 +30651,13 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N43" t="n">
-        <v>133.3972385269133</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O43" t="n">
         <v>36.70659427566596</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81777162581083</v>
+        <v>175.5309701549562</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7594634122123</v>
@@ -30718,7 +30718,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J44" t="n">
-        <v>140.5719283276619</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K44" t="n">
         <v>236.2350917786668</v>
@@ -30727,16 +30727,16 @@
         <v>236.2350917786668</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>141.0540881771041</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2350917786668</v>
+        <v>13.34037157088127</v>
       </c>
       <c r="Q44" t="n">
         <v>236.2350917786668</v>
@@ -30748,7 +30748,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="T44" t="n">
-        <v>236.2350917786668</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U44" t="n">
         <v>236.2350917786668</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.2384473083776</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30782,7 +30782,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606007</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3151594521598</v>
@@ -30830,7 +30830,7 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U45" t="n">
-        <v>236.2350917786668</v>
+        <v>111.6835015708509</v>
       </c>
       <c r="V45" t="n">
         <v>236.2350917786668</v>
@@ -30864,10 +30864,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6953110816783</v>
+        <v>176.6034212006886</v>
       </c>
       <c r="H46" t="n">
         <v>165.7758191012691</v>
@@ -30888,10 +30888,10 @@
         <v>24.3603827851581</v>
       </c>
       <c r="N46" t="n">
-        <v>15.68403999776786</v>
+        <v>15.68403999776785</v>
       </c>
       <c r="O46" t="n">
-        <v>154.4197928048114</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P46" t="n">
         <v>57.81777162581083</v>
@@ -30906,7 +30906,7 @@
         <v>235.3428244409627</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7382129287516</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U46" t="n">
         <v>236.2350917786668</v>
@@ -31759,7 +31759,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K11" t="n">
         <v>53.28563029119444</v>
@@ -31768,31 +31768,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M11" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N11" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O11" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q11" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S11" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H12" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J12" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K12" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M12" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q12" t="n">
         <v>28.61014760851005</v>
@@ -31865,10 +31865,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474547189828377</v>
@@ -31911,10 +31911,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H13" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J13" t="n">
         <v>13.28481607105246</v>
@@ -31932,7 +31932,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P13" t="n">
         <v>22.72614028665062</v>
@@ -31947,7 +31947,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024931161454479</v>
@@ -31996,7 +31996,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K14" t="n">
         <v>53.28563029119444</v>
@@ -32005,31 +32005,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M14" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N14" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O14" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q14" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S14" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H15" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J15" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K15" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M15" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q15" t="n">
         <v>28.61014760851005</v>
@@ -32102,10 +32102,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474547189828377</v>
@@ -32148,10 +32148,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H16" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J16" t="n">
         <v>13.28481607105246</v>
@@ -32169,7 +32169,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P16" t="n">
         <v>22.72614028665062</v>
@@ -32184,7 +32184,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024931161454479</v>
@@ -32233,7 +32233,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K17" t="n">
         <v>53.28563029119444</v>
@@ -32242,31 +32242,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M17" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N17" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O17" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q17" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S17" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H18" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J18" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K18" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M18" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q18" t="n">
         <v>28.61014760851005</v>
@@ -32339,10 +32339,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474547189828377</v>
@@ -32385,10 +32385,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H19" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J19" t="n">
         <v>13.28481607105246</v>
@@ -32406,7 +32406,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P19" t="n">
         <v>22.72614028665062</v>
@@ -32421,7 +32421,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024931161454479</v>
@@ -32470,7 +32470,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K20" t="n">
         <v>53.28563029119444</v>
@@ -32479,31 +32479,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M20" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N20" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O20" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q20" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S20" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H21" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J21" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K21" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M21" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q21" t="n">
         <v>28.61014760851005</v>
@@ -32576,10 +32576,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474547189828377</v>
@@ -32622,10 +32622,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H22" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J22" t="n">
         <v>13.28481607105246</v>
@@ -32643,7 +32643,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P22" t="n">
         <v>22.72614028665062</v>
@@ -32658,7 +32658,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024931161454479</v>
@@ -32707,7 +32707,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K23" t="n">
         <v>53.28563029119444</v>
@@ -32716,31 +32716,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M23" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N23" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O23" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q23" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S23" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H24" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J24" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K24" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M24" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q24" t="n">
         <v>28.61014760851005</v>
@@ -32813,10 +32813,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474547189828377</v>
@@ -32859,10 +32859,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H25" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J25" t="n">
         <v>13.28481607105246</v>
@@ -32880,7 +32880,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P25" t="n">
         <v>22.72614028665062</v>
@@ -32895,7 +32895,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024931161454479</v>
@@ -32944,7 +32944,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K26" t="n">
         <v>53.28563029119444</v>
@@ -32953,31 +32953,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M26" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N26" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O26" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q26" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S26" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H27" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J27" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K27" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M27" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q27" t="n">
         <v>28.61014760851005</v>
@@ -33050,10 +33050,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474547189828377</v>
@@ -33096,10 +33096,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H28" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J28" t="n">
         <v>13.28481607105246</v>
@@ -33117,7 +33117,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P28" t="n">
         <v>22.72614028665062</v>
@@ -33132,7 +33132,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024931161454479</v>
@@ -33181,7 +33181,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K29" t="n">
         <v>53.28563029119444</v>
@@ -33190,31 +33190,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M29" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N29" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O29" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q29" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S29" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H30" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J30" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K30" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M30" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q30" t="n">
         <v>28.61014760851005</v>
@@ -33287,10 +33287,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474547189828377</v>
@@ -33333,10 +33333,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H31" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J31" t="n">
         <v>13.28481607105246</v>
@@ -33354,7 +33354,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P31" t="n">
         <v>22.72614028665062</v>
@@ -33369,7 +33369,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024931161454479</v>
@@ -33418,7 +33418,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K32" t="n">
         <v>53.28563029119444</v>
@@ -33427,31 +33427,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M32" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N32" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O32" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q32" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S32" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H33" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J33" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K33" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M33" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q33" t="n">
         <v>28.61014760851005</v>
@@ -33524,10 +33524,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474547189828377</v>
@@ -33570,10 +33570,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H34" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J34" t="n">
         <v>13.28481607105246</v>
@@ -33591,7 +33591,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P34" t="n">
         <v>22.72614028665062</v>
@@ -33606,7 +33606,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024931161454479</v>
@@ -33655,7 +33655,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K35" t="n">
         <v>53.28563029119444</v>
@@ -33664,31 +33664,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M35" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N35" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O35" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q35" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S35" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H36" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J36" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K36" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M36" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q36" t="n">
         <v>28.61014760851005</v>
@@ -33761,10 +33761,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474547189828377</v>
@@ -33807,10 +33807,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H37" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J37" t="n">
         <v>13.28481607105246</v>
@@ -33828,7 +33828,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P37" t="n">
         <v>22.72614028665062</v>
@@ -33843,7 +33843,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024931161454479</v>
@@ -33892,7 +33892,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K38" t="n">
         <v>53.28563029119444</v>
@@ -33901,31 +33901,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M38" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N38" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O38" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q38" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S38" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H39" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J39" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K39" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M39" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q39" t="n">
         <v>28.61014760851005</v>
@@ -33998,10 +33998,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474547189828377</v>
@@ -34044,10 +34044,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H40" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J40" t="n">
         <v>13.28481607105246</v>
@@ -34065,7 +34065,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P40" t="n">
         <v>22.72614028665062</v>
@@ -34080,7 +34080,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024931161454479</v>
@@ -34129,7 +34129,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K41" t="n">
         <v>53.28563029119444</v>
@@ -34138,31 +34138,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M41" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N41" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O41" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q41" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S41" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H42" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J42" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K42" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M42" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q42" t="n">
         <v>28.61014760851005</v>
@@ -34235,10 +34235,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474547189828377</v>
@@ -34281,10 +34281,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H43" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J43" t="n">
         <v>13.28481607105246</v>
@@ -34302,7 +34302,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P43" t="n">
         <v>22.72614028665062</v>
@@ -34317,7 +34317,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024931161454479</v>
@@ -34366,7 +34366,7 @@
         <v>16.14963601152697</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55360014093345</v>
+        <v>35.55360014093346</v>
       </c>
       <c r="K44" t="n">
         <v>53.28563029119444</v>
@@ -34375,31 +34375,31 @@
         <v>66.10553621396906</v>
       </c>
       <c r="M44" t="n">
-        <v>73.5551462112453</v>
+        <v>73.55514621124532</v>
       </c>
       <c r="N44" t="n">
         <v>74.74534537648105</v>
       </c>
       <c r="O44" t="n">
-        <v>70.57991011055481</v>
+        <v>70.57991011055482</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23832035542681</v>
+        <v>60.23832035542682</v>
       </c>
       <c r="Q44" t="n">
         <v>45.23646990051962</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31371696022517</v>
+        <v>26.31371696022518</v>
       </c>
       <c r="S44" t="n">
-        <v>9.545680062581436</v>
+        <v>9.545680062581438</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833734041643454</v>
+        <v>1.833734041643455</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03351198705459195</v>
+        <v>0.03351198705459196</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241311728539132</v>
+        <v>0.2241311728539133</v>
       </c>
       <c r="H45" t="n">
         <v>2.164635274668057</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716796960101838</v>
+        <v>7.716796960101839</v>
       </c>
       <c r="J45" t="n">
         <v>21.17548067739538</v>
       </c>
       <c r="K45" t="n">
-        <v>36.19226925860756</v>
+        <v>36.19226925860757</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66497242163586</v>
+        <v>48.66497242163587</v>
       </c>
       <c r="M45" t="n">
-        <v>56.7897274375902</v>
+        <v>56.78972743759021</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29278253975527</v>
+        <v>58.29278253975528</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32650760441329</v>
+        <v>53.3265076044133</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79922370049857</v>
+        <v>42.79922370049858</v>
       </c>
       <c r="Q45" t="n">
         <v>28.61014760851005</v>
@@ -34472,10 +34472,10 @@
         <v>13.91579334614034</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163138232615447</v>
+        <v>4.163138232615448</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034059116348517</v>
+        <v>0.9034059116348518</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474547189828377</v>
@@ -34518,10 +34518,10 @@
         <v>0.1879040462666543</v>
       </c>
       <c r="H46" t="n">
-        <v>1.6706377931708</v>
+        <v>1.670637793170801</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650787136819024</v>
+        <v>5.650787136819025</v>
       </c>
       <c r="J46" t="n">
         <v>13.28481607105246</v>
@@ -34539,7 +34539,7 @@
         <v>28.7544437346054</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55938283049038</v>
+        <v>26.55938283049039</v>
       </c>
       <c r="P46" t="n">
         <v>22.72614028665062</v>
@@ -34554,7 +34554,7 @@
         <v>3.274655060847056</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8028627431393409</v>
+        <v>0.802862743139341</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024931161454479</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>84.54481721446616</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.11497697927649</v>
+        <v>51.52016361342294</v>
       </c>
       <c r="M11" t="n">
-        <v>84.54481721446616</v>
+        <v>83.81751137732807</v>
       </c>
       <c r="N11" t="n">
-        <v>79.94009560461434</v>
+        <v>78.26221480760586</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435599</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39918729404057</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>84.54481721446616</v>
+        <v>81.12886500378065</v>
       </c>
       <c r="M12" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="N12" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="O12" t="n">
-        <v>41.72967770974007</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35559,31 +35559,31 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.33562262489549</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.737513298979469</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>44.07313592387521</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>84.54481721446616</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54481721446616</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>80.66740144175236</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,16 +35653,16 @@
         <v>49.11497697927649</v>
       </c>
       <c r="M14" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732807</v>
       </c>
       <c r="N14" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="O14" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435599</v>
       </c>
       <c r="P14" t="n">
-        <v>80.66740144175368</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>39.39918729404057</v>
       </c>
       <c r="L15" t="n">
-        <v>41.72967770974051</v>
+        <v>41.72967770974006</v>
       </c>
       <c r="M15" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="P15" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,22 +35781,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>37.65426075419219</v>
       </c>
       <c r="D16" t="n">
-        <v>58.92879147545381</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.43530051393955</v>
       </c>
       <c r="F16" t="n">
-        <v>65.18455950771786</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>28.52839187020952</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.504602155169275</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="P16" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>49.11497697927649</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732807</v>
       </c>
       <c r="N17" t="n">
         <v>78.26221480760586</v>
       </c>
       <c r="O17" t="n">
-        <v>84.54481721446658</v>
+        <v>36.61860963435599</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="Q17" t="n">
-        <v>39.02379626850376</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.405186634146416</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.39918729404057</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>84.54481721446658</v>
+        <v>81.12886500378065</v>
       </c>
       <c r="M18" t="n">
-        <v>41.7296777097405</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="P18" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,25 +36127,25 @@
         <v>49.11497697927649</v>
       </c>
       <c r="M20" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="N20" t="n">
         <v>78.26221480760586</v>
       </c>
       <c r="O20" t="n">
-        <v>36.61860963435598</v>
+        <v>36.61860963435599</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.677880797009346</v>
+        <v>1.67788079700837</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>39.39918729404057</v>
       </c>
       <c r="L21" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>41.72967770974006</v>
       </c>
       <c r="N21" t="n">
-        <v>41.7296777097405</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="O21" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="P21" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446612</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>49.11497697927649</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732807</v>
       </c>
       <c r="N23" t="n">
         <v>78.26221480760586</v>
       </c>
       <c r="O23" t="n">
-        <v>39.02379626850379</v>
+        <v>39.02379626850287</v>
       </c>
       <c r="P23" t="n">
-        <v>84.54481721446658</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="N24" t="n">
-        <v>84.54481721446658</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="O24" t="n">
-        <v>84.54481721446658</v>
+        <v>41.72967770974019</v>
       </c>
       <c r="P24" t="n">
-        <v>41.72967770974053</v>
+        <v>84.54481721446628</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199193</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324724</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M26" t="n">
         <v>296.6579549473674</v>
@@ -36607,16 +36607,16 @@
         <v>291.1026583776452</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4590532043954</v>
+        <v>249.4590532043953</v>
       </c>
       <c r="P26" t="n">
         <v>199.5000719991581</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4440857713489</v>
+        <v>124.4440857713488</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471601</v>
+        <v>18.72404447471598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36744,13 +36744,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.0646244687703</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.15178823687899</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.98712986215332</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>82.02930419725267</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36768,10 +36768,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>155.0226719442285</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.84843357367836</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>207.6626829324723</v>
       </c>
       <c r="L29" t="n">
-        <v>261.9554205493159</v>
+        <v>261.9554205493158</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6579549473674</v>
+        <v>296.6579549473675</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1026583776452</v>
+        <v>291.1026583776453</v>
       </c>
       <c r="O29" t="n">
         <v>249.4590532043954</v>
@@ -36850,10 +36850,10 @@
         <v>199.5000719991581</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4440857713494</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R29" t="n">
-        <v>18.724044474716</v>
+        <v>18.72404447471603</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.15178823687899</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>33.87751596037342</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>150.9709959836537</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37005,10 +37005,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0226719442285</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.0809801578271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.0926468199194</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6626829324728</v>
+        <v>207.6626829324723</v>
       </c>
       <c r="L32" t="n">
         <v>261.9554205493159</v>
@@ -37090,7 +37090,7 @@
         <v>124.4440857713489</v>
       </c>
       <c r="R32" t="n">
-        <v>18.724044474716</v>
+        <v>18.72404447471601</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37230,25 +37230,25 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>181.5009521299002</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>51.26197007165517</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1338492943734</v>
       </c>
       <c r="P34" t="n">
-        <v>55.55102401158078</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.656156775452359</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K35" t="n">
-        <v>59.64637093997666</v>
+        <v>231.0573311410997</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3500687579433</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M35" t="n">
         <v>320.0526031559949</v>
       </c>
       <c r="N35" t="n">
-        <v>314.4973065862727</v>
+        <v>78.26221480760586</v>
       </c>
       <c r="O35" t="n">
-        <v>36.61860963435598</v>
+        <v>200.0087344455305</v>
       </c>
       <c r="P35" t="n">
         <v>222.8947202077855</v>
@@ -37327,13 +37327,13 @@
         <v>147.8387339799763</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334342</v>
+        <v>42.11869268334343</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189232</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032221</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37446,7 +37446,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>72.16551469515052</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -37476,22 +37476,22 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>8.237570162691012</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.4756283664545</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>33.05080498407978</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>12.49687884991519</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>160.4872950285468</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>231.0573311410998</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3500687579433</v>
+        <v>176.3465337360579</v>
       </c>
       <c r="M38" t="n">
-        <v>83.81751137732806</v>
+        <v>83.81751137732807</v>
       </c>
       <c r="N38" t="n">
         <v>314.4973065862727</v>
@@ -37558,19 +37558,19 @@
         <v>272.8537014130228</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077856</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>89.11650257474767</v>
+        <v>147.8387339799763</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.11869268334345</v>
       </c>
       <c r="S38" t="n">
-        <v>8.995665063189289</v>
+        <v>8.995665063189263</v>
       </c>
       <c r="T38" t="n">
-        <v>13.82253142032227</v>
+        <v>13.82253142032224</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37689,13 +37689,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>46.16676208363886</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.54643644550646</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>117.7131985291454</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410997</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>285.3500687579433</v>
       </c>
       <c r="M41" t="n">
-        <v>266.9902922377746</v>
+        <v>320.0526031559949</v>
       </c>
       <c r="N41" t="n">
-        <v>78.26221480760586</v>
+        <v>189.0229434941142</v>
       </c>
       <c r="O41" t="n">
         <v>272.8537014130228</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>222.8947202077856</v>
       </c>
       <c r="Q41" t="n">
         <v>147.8387339799763</v>
@@ -37804,10 +37804,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189261</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.82253142032224</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>117.7131985291454</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82413157754188</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K44" t="n">
         <v>231.0573311410997</v>
@@ -38023,28 +38023,28 @@
         <v>285.3500687579433</v>
       </c>
       <c r="M44" t="n">
-        <v>83.81751137732806</v>
+        <v>320.0526031559949</v>
       </c>
       <c r="N44" t="n">
-        <v>314.4973065862727</v>
+        <v>78.26221480760586</v>
       </c>
       <c r="O44" t="n">
-        <v>36.61860963435598</v>
+        <v>177.6726978114601</v>
       </c>
       <c r="P44" t="n">
-        <v>222.8947202077856</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>147.8387339799763</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334345</v>
+        <v>42.1186926833434</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189261</v>
+        <v>8.995665063189206</v>
       </c>
       <c r="T44" t="n">
-        <v>13.82253142032224</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38160,10 +38160,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.30820956022012</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>7.908110119010293</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>117.7131985291454</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>12.49687884991516</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
